--- a/xlsx/维基百科 (消歧义)_intext.xlsx
+++ b/xlsx/维基百科 (消歧义)_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_维基百科 (消歧义)</t>
+    <t>政策_政策_维基百科_维基百科 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F274301</t>
